--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.4.2 orgtree from sources/1.0 orgtree.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.4.2 orgtree from sources/1.0 orgtree.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.4.2 orgtree from sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53865BF-D914-426A-BAC1-8F89B80C0C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968EFE07-6904-4560-BFCE-D42C9C297A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CC174E2-BE75-48A2-8DBE-548AA62A0029}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2022" sheetId="2" r:id="rId1"/>
+    <sheet name="historical" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="319">
   <si>
     <t>InsideGov</t>
   </si>
@@ -107,12 +108,6 @@
     <t>간석지건설지도국</t>
   </si>
   <si>
-    <t>PositionList</t>
-  </si>
-  <si>
-    <t>국장, 부국장</t>
-  </si>
-  <si>
     <t>간석지건설지도국_간석지설계연구소</t>
   </si>
   <si>
@@ -128,20 +123,884 @@
     <t>Current</t>
   </si>
   <si>
-    <t>총리, 부총리, 정치국장</t>
-  </si>
-  <si>
     <t>2019_북한_기관별_인명록</t>
   </si>
   <si>
     <t>내각에 "기타" 조직</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>정치국장</t>
+  </si>
+  <si>
+    <t>부총리</t>
+  </si>
+  <si>
+    <t>총리</t>
+  </si>
+  <si>
+    <t>국장</t>
+  </si>
+  <si>
+    <t>부국장</t>
+  </si>
+  <si>
+    <t>PI_Index</t>
+  </si>
+  <si>
+    <t>총비서</t>
+  </si>
+  <si>
+    <t>중앙위원회</t>
+  </si>
+  <si>
+    <t>중앙위원회_정치국</t>
+  </si>
+  <si>
+    <t>중앙위원회_비서국</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>상무위원</t>
+  </si>
+  <si>
+    <t>위원</t>
+  </si>
+  <si>
+    <t>후보위원</t>
+  </si>
+  <si>
+    <t>제1비서</t>
+  </si>
+  <si>
+    <t>비서</t>
+  </si>
+  <si>
+    <t>위원장</t>
+  </si>
+  <si>
+    <t>부위원장</t>
+  </si>
+  <si>
+    <t>위원, 후보위원</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>중앙위원회_조직지도부</t>
+  </si>
+  <si>
+    <t>중앙위원회_선전선동부</t>
+  </si>
+  <si>
+    <t>중앙위원회_간부부</t>
+  </si>
+  <si>
+    <t>중앙위원회_경공업부</t>
+  </si>
+  <si>
+    <t>중앙위원회_경제부</t>
+  </si>
+  <si>
+    <t>중앙위원회_과학교육부</t>
+  </si>
+  <si>
+    <t>중앙위원회_국제부</t>
+  </si>
+  <si>
+    <t>중앙위원회_군수공업부</t>
+  </si>
+  <si>
+    <t>중앙위원회_군정지도부</t>
+  </si>
+  <si>
+    <t>중앙위원회_규율조사부</t>
+  </si>
+  <si>
+    <t>중앙위원회_근로단체부</t>
+  </si>
+  <si>
+    <t>중앙위원회_농업부</t>
+  </si>
+  <si>
+    <t>중앙위원회_당역사연구소</t>
+  </si>
+  <si>
+    <t>중앙위원회_문서정리실</t>
+  </si>
+  <si>
+    <t>중앙위원회_문화예술부</t>
+  </si>
+  <si>
+    <t>중앙위원회_민방위부</t>
+  </si>
+  <si>
+    <t>중앙위원회_법무부</t>
+  </si>
+  <si>
+    <t>중앙위원회_재정경리부</t>
+  </si>
+  <si>
+    <t>중앙위원회_총무부</t>
+  </si>
+  <si>
+    <t>중앙위원회_통일전선부</t>
+  </si>
+  <si>
+    <t>중앙위원회_39호실</t>
+  </si>
+  <si>
+    <t>중앙위원회_경제정책실</t>
+  </si>
+  <si>
+    <t>부장</t>
+  </si>
+  <si>
+    <t>제1부부장, 부부장</t>
+  </si>
+  <si>
+    <t>고문, 부장</t>
+  </si>
+  <si>
+    <t>제1부부장</t>
+  </si>
+  <si>
+    <t>부부장</t>
+  </si>
+  <si>
+    <t>소장</t>
+  </si>
+  <si>
+    <t>부소장</t>
+  </si>
+  <si>
+    <t>실장</t>
+  </si>
+  <si>
+    <t>OrgRank</t>
+  </si>
+  <si>
+    <t>책임비서</t>
+  </si>
+  <si>
+    <t>조직부비서</t>
+  </si>
+  <si>
+    <t>국무위원회</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>2.1.0</t>
+  </si>
+  <si>
+    <t>2.2.0</t>
+  </si>
+  <si>
+    <t>2.3.0</t>
+  </si>
+  <si>
+    <t>제1부위원장, 부위원장</t>
+  </si>
+  <si>
+    <t>경위국</t>
+  </si>
+  <si>
+    <t>정책국</t>
+  </si>
+  <si>
+    <t>중앙위원회_중앙군사위원회</t>
+  </si>
+  <si>
+    <t>중앙위원회_중앙검사위원회</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>1.1.8</t>
+  </si>
+  <si>
+    <t>1.1.9</t>
+  </si>
+  <si>
+    <t>1.1.10</t>
+  </si>
+  <si>
+    <t>1.1.11</t>
+  </si>
+  <si>
+    <t>1.1.12</t>
+  </si>
+  <si>
+    <t>1.1.13</t>
+  </si>
+  <si>
+    <t>1.1.14</t>
+  </si>
+  <si>
+    <t>1.1.15</t>
+  </si>
+  <si>
+    <t>1.1.16</t>
+  </si>
+  <si>
+    <t>1.1.17</t>
+  </si>
+  <si>
+    <t>1.1.18</t>
+  </si>
+  <si>
+    <t>1.1.19</t>
+  </si>
+  <si>
+    <t>1.1.20</t>
+  </si>
+  <si>
+    <t>1.1.21</t>
+  </si>
+  <si>
+    <t>1.1.22</t>
+  </si>
+  <si>
+    <t>1.1.23</t>
+  </si>
+  <si>
+    <t>1.1.24</t>
+  </si>
+  <si>
+    <t>1.1.25</t>
+  </si>
+  <si>
+    <t>1.1.26</t>
+  </si>
+  <si>
+    <t>1.1.27</t>
+  </si>
+  <si>
+    <t>1.1.28</t>
+  </si>
+  <si>
+    <t>1.1.29</t>
+  </si>
+  <si>
+    <t>1.1.30</t>
+  </si>
+  <si>
+    <t>1.1.31</t>
+  </si>
+  <si>
+    <t>1.1.32</t>
+  </si>
+  <si>
+    <t>1.1.33</t>
+  </si>
+  <si>
+    <t>1.1.34</t>
+  </si>
+  <si>
+    <t>1.1.35</t>
+  </si>
+  <si>
+    <t>1.1.36</t>
+  </si>
+  <si>
+    <t>1.1.37</t>
+  </si>
+  <si>
+    <t>1.1.38</t>
+  </si>
+  <si>
+    <t>1.1.39</t>
+  </si>
+  <si>
+    <t>중앙위원회_평양직할시지방당</t>
+  </si>
+  <si>
+    <t>중앙위원회_남포특별시지방당</t>
+  </si>
+  <si>
+    <t>중앙위원회_개성특별시지방당</t>
+  </si>
+  <si>
+    <t>중앙위원회_나선특별시지방당</t>
+  </si>
+  <si>
+    <t>중앙위원회_평안남도지방당</t>
+  </si>
+  <si>
+    <t>중앙위원회_평안북도지방당</t>
+  </si>
+  <si>
+    <t>중앙위원회_황해남도지방당</t>
+  </si>
+  <si>
+    <t>중앙위원회_황해북도지방당</t>
+  </si>
+  <si>
+    <t>중앙위원회_함경남도지방당</t>
+  </si>
+  <si>
+    <t>중앙위원회_함경북도지방당</t>
+  </si>
+  <si>
+    <t>중앙위원회_자강도지방당</t>
+  </si>
+  <si>
+    <t>중앙위원회_강원도지방당</t>
+  </si>
+  <si>
+    <t>중앙위원회_양강도지방당</t>
+  </si>
+  <si>
+    <t>산림정책감독국</t>
+  </si>
+  <si>
+    <t>설계국</t>
+  </si>
+  <si>
+    <t>안전담당</t>
+  </si>
+  <si>
+    <t>참사</t>
+  </si>
+  <si>
+    <t>2.4.0</t>
+  </si>
+  <si>
+    <t>2.5.0</t>
+  </si>
+  <si>
+    <t>2.6.0</t>
+  </si>
+  <si>
+    <t>국방성</t>
+  </si>
+  <si>
+    <t>국방성_군사건설국</t>
+  </si>
+  <si>
+    <t>국방성_군사대외사업국</t>
+  </si>
+  <si>
+    <t>국방성_군사동원총국</t>
+  </si>
+  <si>
+    <t>국방성_기술총국</t>
+  </si>
+  <si>
+    <t>국방성_장비총국</t>
+  </si>
+  <si>
+    <t>국방성_후방총국</t>
+  </si>
+  <si>
+    <t>2.6.1</t>
+  </si>
+  <si>
+    <t>2.6.2</t>
+  </si>
+  <si>
+    <t>2.6.3</t>
+  </si>
+  <si>
+    <t>2.6.4</t>
+  </si>
+  <si>
+    <t>2.6.5</t>
+  </si>
+  <si>
+    <t>2.6.6</t>
+  </si>
+  <si>
+    <t>상</t>
+  </si>
+  <si>
+    <t>제1부상, 부상</t>
+  </si>
+  <si>
+    <t>대변인</t>
+  </si>
+  <si>
+    <t>총국장</t>
+  </si>
+  <si>
+    <t>부총국장</t>
+  </si>
+  <si>
+    <t>국가보위성</t>
+  </si>
+  <si>
+    <t>국가보위성_정치국</t>
+  </si>
+  <si>
+    <t>사회안정성</t>
+  </si>
+  <si>
+    <t>사회안정성_정치국</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>2.3.5</t>
+  </si>
+  <si>
+    <t>2.3.6</t>
+  </si>
+  <si>
+    <t>2.3.7</t>
+  </si>
+  <si>
+    <t>2.3.8</t>
+  </si>
+  <si>
+    <t>2.3.9</t>
+  </si>
+  <si>
+    <t>2.3.10</t>
+  </si>
+  <si>
+    <t>사회안정성_경비총국</t>
+  </si>
+  <si>
+    <t>사회안정성_경비훈련국</t>
+  </si>
+  <si>
+    <t>사회안정성_공민등록국</t>
+  </si>
+  <si>
+    <t>사회안정성_공병총국</t>
+  </si>
+  <si>
+    <t>사회안정성_교화국</t>
+  </si>
+  <si>
+    <t>사회안정성_도로총국</t>
+  </si>
+  <si>
+    <t>사회안정성_외사국</t>
+  </si>
+  <si>
+    <t>사회안정성_제4공벙국</t>
+  </si>
+  <si>
+    <t>사회안정성_조직국</t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t>내각사무국</t>
+  </si>
+  <si>
+    <t>내각정치국</t>
+  </si>
+  <si>
+    <t>교육위원회</t>
+  </si>
+  <si>
+    <t>국가가격위원회</t>
+  </si>
+  <si>
+    <t>국가검열위원회</t>
+  </si>
+  <si>
+    <t>국가계획위원회</t>
+  </si>
+  <si>
+    <t>국가과학기술위원회</t>
+  </si>
+  <si>
+    <t>국가품질감독위원회</t>
+  </si>
+  <si>
+    <t>농업위원회</t>
+  </si>
+  <si>
+    <t>조국평화통일위원회</t>
+  </si>
+  <si>
+    <t>평양건설위원회</t>
+  </si>
+  <si>
+    <t>건설건재공업성</t>
+  </si>
+  <si>
+    <t>경공업성</t>
+  </si>
+  <si>
+    <t>국가건설감독성</t>
+  </si>
+  <si>
+    <t>국토환경보호성</t>
+  </si>
+  <si>
+    <t>금속공업성</t>
+  </si>
+  <si>
+    <t>기계공업성</t>
+  </si>
+  <si>
+    <t>노동성</t>
+  </si>
+  <si>
+    <t>대외경제성</t>
+  </si>
+  <si>
+    <t>도시경영성</t>
+  </si>
+  <si>
+    <t>문화성</t>
+  </si>
+  <si>
+    <t>보건성</t>
+  </si>
+  <si>
+    <t>상업성</t>
+  </si>
+  <si>
+    <t>석탄공업성</t>
+  </si>
+  <si>
+    <t>선박공업성</t>
+  </si>
+  <si>
+    <t>수산성</t>
+  </si>
+  <si>
+    <t>식료공업성</t>
+  </si>
+  <si>
+    <t>외무성</t>
+  </si>
+  <si>
+    <t>원자력공업성</t>
+  </si>
+  <si>
+    <t>육해운성</t>
+  </si>
+  <si>
+    <t>임업성</t>
+  </si>
+  <si>
+    <t>자원개방성</t>
+  </si>
+  <si>
+    <t>재정성</t>
+  </si>
+  <si>
+    <t>전력공업성</t>
+  </si>
+  <si>
+    <t>정보산업성</t>
+  </si>
+  <si>
+    <t>채취공업성</t>
+  </si>
+  <si>
+    <t>철도성</t>
+  </si>
+  <si>
+    <t>체육성</t>
+  </si>
+  <si>
+    <t>화학공업성</t>
+  </si>
+  <si>
+    <t>국가우주개발국</t>
+  </si>
+  <si>
+    <t>중앙통계국</t>
+  </si>
+  <si>
+    <t>국가과학원</t>
+  </si>
+  <si>
+    <t>중앙은행</t>
+  </si>
+  <si>
+    <t>3.1.0</t>
+  </si>
+  <si>
+    <t>3.2.0</t>
+  </si>
+  <si>
+    <t>3.3.0</t>
+  </si>
+  <si>
+    <t>3.4.0</t>
+  </si>
+  <si>
+    <t>3.5.0</t>
+  </si>
+  <si>
+    <t>3.6.0</t>
+  </si>
+  <si>
+    <t>3.7.0</t>
+  </si>
+  <si>
+    <t>3.8.0</t>
+  </si>
+  <si>
+    <t>3.9.0</t>
+  </si>
+  <si>
+    <t>3.10.0</t>
+  </si>
+  <si>
+    <t>3.11.0</t>
+  </si>
+  <si>
+    <t>3.12.0</t>
+  </si>
+  <si>
+    <t>3.13.0</t>
+  </si>
+  <si>
+    <t>3.14.0</t>
+  </si>
+  <si>
+    <t>3.15.0</t>
+  </si>
+  <si>
+    <t>3.16.0</t>
+  </si>
+  <si>
+    <t>3.17.0</t>
+  </si>
+  <si>
+    <t>3.18.0</t>
+  </si>
+  <si>
+    <t>3.19.0</t>
+  </si>
+  <si>
+    <t>3.20.0</t>
+  </si>
+  <si>
+    <t>3.21.0</t>
+  </si>
+  <si>
+    <t>3.22.0</t>
+  </si>
+  <si>
+    <t>3.23.0</t>
+  </si>
+  <si>
+    <t>3.24.0</t>
+  </si>
+  <si>
+    <t>3.25.0</t>
+  </si>
+  <si>
+    <t>3.26.0</t>
+  </si>
+  <si>
+    <t>3.27.0</t>
+  </si>
+  <si>
+    <t>3.28.0</t>
+  </si>
+  <si>
+    <t>3.29.0</t>
+  </si>
+  <si>
+    <t>3.30.0</t>
+  </si>
+  <si>
+    <t>3.31.0</t>
+  </si>
+  <si>
+    <t>3.32.0</t>
+  </si>
+  <si>
+    <t>3.33.0</t>
+  </si>
+  <si>
+    <t>3.34.0</t>
+  </si>
+  <si>
+    <t>3.35.0</t>
+  </si>
+  <si>
+    <t>3.36.0</t>
+  </si>
+  <si>
+    <t>3.37.0</t>
+  </si>
+  <si>
+    <t>3.38.0</t>
+  </si>
+  <si>
+    <t>3.39.0</t>
+  </si>
+  <si>
+    <t>3.40.0</t>
+  </si>
+  <si>
+    <t>3.41.0</t>
+  </si>
+  <si>
+    <t>3.42.0</t>
+  </si>
+  <si>
+    <t>3.43.0</t>
+  </si>
+  <si>
+    <t>사무장, 국장</t>
+  </si>
+  <si>
+    <t>당책임비서, 참사</t>
+  </si>
+  <si>
+    <t>국장, 제1부국장, 부국장, 정치국장, 정치부국장</t>
+  </si>
+  <si>
+    <t>당책임비서, 당비서, 참모장, 부참모장</t>
+  </si>
+  <si>
+    <t>부상</t>
+  </si>
+  <si>
+    <t>당책임비서, 당비서</t>
+  </si>
+  <si>
+    <t>당책임비서</t>
+  </si>
+  <si>
+    <t>2006. 10. 26자로 전기석탄공업성에서 전력공업성과 석탄공업성으로 분리, 직제 및 구성원 미상이나 기존 전기석탄공업성을 토대로 재구성한 추정자료임.</t>
+  </si>
+  <si>
+    <t>당비서</t>
+  </si>
+  <si>
+    <t>원장</t>
+  </si>
+  <si>
+    <t>부원장</t>
+  </si>
+  <si>
+    <t>당책임비서, 당비서, 당부부장</t>
+  </si>
+  <si>
+    <t>총재</t>
+  </si>
+  <si>
+    <t>부총재</t>
+  </si>
+  <si>
+    <t>이사</t>
+  </si>
+  <si>
+    <t>국가체육지도위원회</t>
+  </si>
+  <si>
+    <t>최고인민회의</t>
+  </si>
+  <si>
+    <t>검찰재판소</t>
+  </si>
+  <si>
+    <t>시도군인민위원회</t>
+  </si>
+  <si>
+    <t>시도군인민회의</t>
+  </si>
+  <si>
+    <t>도농촌경리위원회</t>
+  </si>
+  <si>
+    <t>지방정권기관</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
+  </si>
+  <si>
+    <t>5.0.0</t>
+  </si>
+  <si>
+    <t>6.0.0</t>
+  </si>
+  <si>
+    <t>7.0.0</t>
+  </si>
+  <si>
+    <t>8.0.0</t>
+  </si>
+  <si>
+    <t>9.0.0</t>
+  </si>
+  <si>
+    <t>인민군</t>
+  </si>
+  <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>당외각 및 사회단체</t>
+  </si>
+  <si>
+    <t>국제친선단체</t>
+  </si>
+  <si>
+    <t>재외공관</t>
+  </si>
+  <si>
+    <t>대사관</t>
+  </si>
+  <si>
+    <t>총영사관</t>
+  </si>
+  <si>
+    <t>대표부</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +1050,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +1068,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +1115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -260,9 +1132,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -273,6 +1142,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -587,25 +1463,3815 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4C5FB8-F5DF-4A1A-874D-E7CD0466A829}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BACEB8E-C0F9-4C5A-9CBE-784153896C3D}">
+  <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="16.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" customWidth="1"/>
-    <col min="3" max="3" width="34.26953125" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
-    <col min="5" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="21.81640625" customWidth="1"/>
-    <col min="9" max="9" width="23.90625" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="30.81640625" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" style="11" customWidth="1"/>
+    <col min="6" max="8" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12" s="11" customFormat="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="11">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="11">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="11">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="11">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="11">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="11">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="11">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="11">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="11">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="11">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="11">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="11">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="11">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="11">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="11">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="11">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="11">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="11">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="11">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="11">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="11">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="11">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="11">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="11">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="11">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="11">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="11">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>151</v>
+      </c>
+      <c r="I48" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="11">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>168</v>
+      </c>
+      <c r="G49" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" t="s">
+        <v>170</v>
+      </c>
+      <c r="I49" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="11">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="11">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="11">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>171</v>
+      </c>
+      <c r="G52" t="s">
+        <v>172</v>
+      </c>
+      <c r="I52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="11">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>171</v>
+      </c>
+      <c r="G53" t="s">
+        <v>172</v>
+      </c>
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" s="11">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" t="s">
+        <v>172</v>
+      </c>
+      <c r="I54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="11">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" t="s">
+        <v>172</v>
+      </c>
+      <c r="I55" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="11">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>168</v>
+      </c>
+      <c r="G56" t="s">
+        <v>169</v>
+      </c>
+      <c r="I56" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="11">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="11">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" t="s">
+        <v>169</v>
+      </c>
+      <c r="I58" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="11">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="11">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>171</v>
+      </c>
+      <c r="I60" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" s="11">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I61" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" s="11">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" t="s">
+        <v>37</v>
+      </c>
+      <c r="I62" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63" s="11">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E64" s="11">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" s="11">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" t="s">
+        <v>193</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E66" s="11">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I66" t="s">
+        <v>27</v>
+      </c>
+      <c r="J66" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" t="s">
+        <v>194</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E67" s="11">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="I67" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" t="s">
+        <v>27</v>
+      </c>
+      <c r="K67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E68" s="11">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
+      <c r="I68" t="s">
+        <v>27</v>
+      </c>
+      <c r="J68" t="s">
+        <v>27</v>
+      </c>
+      <c r="K68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E69" s="11">
+        <v>0</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I69" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" t="s">
+        <v>27</v>
+      </c>
+      <c r="K69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" s="11">
+        <v>1</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I70" t="s">
+        <v>27</v>
+      </c>
+      <c r="J70" t="s">
+        <v>27</v>
+      </c>
+      <c r="K70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E71" s="11">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" t="s">
+        <v>27</v>
+      </c>
+      <c r="J71" t="s">
+        <v>27</v>
+      </c>
+      <c r="K71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E72" s="11">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>51</v>
+      </c>
+      <c r="G72" t="s">
+        <v>52</v>
+      </c>
+      <c r="I72" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E73" s="11">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I73" t="s">
+        <v>27</v>
+      </c>
+      <c r="J73" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E74" s="11">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>51</v>
+      </c>
+      <c r="G74" t="s">
+        <v>52</v>
+      </c>
+      <c r="I74" t="s">
+        <v>27</v>
+      </c>
+      <c r="J74" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>202</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E75" s="11">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75" t="s">
+        <v>93</v>
+      </c>
+      <c r="I75" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" t="s">
+        <v>27</v>
+      </c>
+      <c r="K75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>203</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E76" s="11">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>51</v>
+      </c>
+      <c r="G76" t="s">
+        <v>52</v>
+      </c>
+      <c r="I76" t="s">
+        <v>27</v>
+      </c>
+      <c r="J76" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E77" s="11">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>51</v>
+      </c>
+      <c r="G77" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" t="s">
+        <v>27</v>
+      </c>
+      <c r="J77" t="s">
+        <v>27</v>
+      </c>
+      <c r="K77" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E78" s="11">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>51</v>
+      </c>
+      <c r="G78" t="s">
+        <v>52</v>
+      </c>
+      <c r="I78" t="s">
+        <v>27</v>
+      </c>
+      <c r="J78" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E79" s="11">
+        <v>1</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s">
+        <v>27</v>
+      </c>
+      <c r="J79" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E80" s="11">
+        <v>1</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I80" t="s">
+        <v>27</v>
+      </c>
+      <c r="J80" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>208</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E81" s="11">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>168</v>
+      </c>
+      <c r="G81" t="s">
+        <v>287</v>
+      </c>
+      <c r="I81" t="s">
+        <v>27</v>
+      </c>
+      <c r="J81" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E82" s="11">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>168</v>
+      </c>
+      <c r="G82" t="s">
+        <v>287</v>
+      </c>
+      <c r="H82" t="s">
+        <v>288</v>
+      </c>
+      <c r="I82" t="s">
+        <v>27</v>
+      </c>
+      <c r="J82" t="s">
+        <v>27</v>
+      </c>
+      <c r="K82" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E83" s="11">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>168</v>
+      </c>
+      <c r="G83" t="s">
+        <v>287</v>
+      </c>
+      <c r="I83" t="s">
+        <v>27</v>
+      </c>
+      <c r="J83" t="s">
+        <v>27</v>
+      </c>
+      <c r="K83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>211</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E84" s="11">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>168</v>
+      </c>
+      <c r="G84" t="s">
+        <v>169</v>
+      </c>
+      <c r="H84" t="s">
+        <v>289</v>
+      </c>
+      <c r="I84" t="s">
+        <v>27</v>
+      </c>
+      <c r="J84" t="s">
+        <v>27</v>
+      </c>
+      <c r="K84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>212</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E85" s="11">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>168</v>
+      </c>
+      <c r="G85" t="s">
+        <v>287</v>
+      </c>
+      <c r="I85" t="s">
+        <v>27</v>
+      </c>
+      <c r="J85" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E86" s="11">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>168</v>
+      </c>
+      <c r="G86" t="s">
+        <v>287</v>
+      </c>
+      <c r="I86" t="s">
+        <v>27</v>
+      </c>
+      <c r="J86" t="s">
+        <v>27</v>
+      </c>
+      <c r="K86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E87" s="11">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>168</v>
+      </c>
+      <c r="G87" t="s">
+        <v>287</v>
+      </c>
+      <c r="I87" t="s">
+        <v>27</v>
+      </c>
+      <c r="J87" t="s">
+        <v>27</v>
+      </c>
+      <c r="K87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>215</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E88" s="11">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>168</v>
+      </c>
+      <c r="G88" t="s">
+        <v>287</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I88" t="s">
+        <v>27</v>
+      </c>
+      <c r="J88" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>216</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E89" s="11">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>168</v>
+      </c>
+      <c r="G89" t="s">
+        <v>287</v>
+      </c>
+      <c r="I89" t="s">
+        <v>27</v>
+      </c>
+      <c r="J89" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>217</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E90" s="11">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>168</v>
+      </c>
+      <c r="G90" t="s">
+        <v>287</v>
+      </c>
+      <c r="H90" t="s">
+        <v>288</v>
+      </c>
+      <c r="I90" t="s">
+        <v>27</v>
+      </c>
+      <c r="J90" t="s">
+        <v>27</v>
+      </c>
+      <c r="K90" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>218</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E91" s="11">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>168</v>
+      </c>
+      <c r="G91" t="s">
+        <v>287</v>
+      </c>
+      <c r="I91" t="s">
+        <v>27</v>
+      </c>
+      <c r="J91" t="s">
+        <v>27</v>
+      </c>
+      <c r="K91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E92" s="11">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>168</v>
+      </c>
+      <c r="G92" t="s">
+        <v>287</v>
+      </c>
+      <c r="I92" t="s">
+        <v>27</v>
+      </c>
+      <c r="J92" t="s">
+        <v>27</v>
+      </c>
+      <c r="K92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>220</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E93" s="11">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>168</v>
+      </c>
+      <c r="G93" t="s">
+        <v>287</v>
+      </c>
+      <c r="I93" t="s">
+        <v>27</v>
+      </c>
+      <c r="J93" t="s">
+        <v>27</v>
+      </c>
+      <c r="K93" t="s">
+        <v>27</v>
+      </c>
+      <c r="L93" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>221</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="E94" s="11">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>168</v>
+      </c>
+      <c r="G94" t="s">
+        <v>287</v>
+      </c>
+      <c r="I94" t="s">
+        <v>27</v>
+      </c>
+      <c r="J94" t="s">
+        <v>27</v>
+      </c>
+      <c r="K94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>222</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E95" s="11">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>168</v>
+      </c>
+      <c r="G95" t="s">
+        <v>287</v>
+      </c>
+      <c r="I95" t="s">
+        <v>27</v>
+      </c>
+      <c r="J95" t="s">
+        <v>27</v>
+      </c>
+      <c r="K95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>223</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E96" s="11">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>168</v>
+      </c>
+      <c r="G96" t="s">
+        <v>287</v>
+      </c>
+      <c r="I96" t="s">
+        <v>27</v>
+      </c>
+      <c r="J96" t="s">
+        <v>27</v>
+      </c>
+      <c r="K96" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>224</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E97" s="11">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>168</v>
+      </c>
+      <c r="G97" t="s">
+        <v>287</v>
+      </c>
+      <c r="I97" t="s">
+        <v>27</v>
+      </c>
+      <c r="J97" t="s">
+        <v>27</v>
+      </c>
+      <c r="K97" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>225</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E98" s="11">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>168</v>
+      </c>
+      <c r="G98" t="s">
+        <v>287</v>
+      </c>
+      <c r="I98" t="s">
+        <v>27</v>
+      </c>
+      <c r="J98" t="s">
+        <v>27</v>
+      </c>
+      <c r="K98" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>226</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E99" s="11">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>168</v>
+      </c>
+      <c r="G99" t="s">
+        <v>287</v>
+      </c>
+      <c r="I99" t="s">
+        <v>27</v>
+      </c>
+      <c r="J99" t="s">
+        <v>27</v>
+      </c>
+      <c r="K99" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>227</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E100" s="11">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>168</v>
+      </c>
+      <c r="G100" t="s">
+        <v>287</v>
+      </c>
+      <c r="I100" t="s">
+        <v>27</v>
+      </c>
+      <c r="J100" t="s">
+        <v>27</v>
+      </c>
+      <c r="K100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>228</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E101" s="11">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>168</v>
+      </c>
+      <c r="G101" t="s">
+        <v>287</v>
+      </c>
+      <c r="I101" t="s">
+        <v>27</v>
+      </c>
+      <c r="J101" t="s">
+        <v>27</v>
+      </c>
+      <c r="K101" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>229</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E102" s="11">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>168</v>
+      </c>
+      <c r="G102" t="s">
+        <v>287</v>
+      </c>
+      <c r="I102" t="s">
+        <v>27</v>
+      </c>
+      <c r="J102" t="s">
+        <v>27</v>
+      </c>
+      <c r="K102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>230</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E103" s="11">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>168</v>
+      </c>
+      <c r="G103" t="s">
+        <v>287</v>
+      </c>
+      <c r="I103" t="s">
+        <v>27</v>
+      </c>
+      <c r="J103" t="s">
+        <v>27</v>
+      </c>
+      <c r="K103" t="s">
+        <v>27</v>
+      </c>
+      <c r="L103" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E104" s="11">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>168</v>
+      </c>
+      <c r="G104" t="s">
+        <v>287</v>
+      </c>
+      <c r="I104" t="s">
+        <v>27</v>
+      </c>
+      <c r="J104" t="s">
+        <v>27</v>
+      </c>
+      <c r="K104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>232</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E105" s="11">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>168</v>
+      </c>
+      <c r="G105" t="s">
+        <v>287</v>
+      </c>
+      <c r="I105" t="s">
+        <v>27</v>
+      </c>
+      <c r="J105" t="s">
+        <v>27</v>
+      </c>
+      <c r="K105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>233</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E106" s="11">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>168</v>
+      </c>
+      <c r="G106" t="s">
+        <v>287</v>
+      </c>
+      <c r="I106" t="s">
+        <v>27</v>
+      </c>
+      <c r="J106" t="s">
+        <v>27</v>
+      </c>
+      <c r="K106" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>234</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E107" s="11">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>168</v>
+      </c>
+      <c r="G107" t="s">
+        <v>287</v>
+      </c>
+      <c r="I107" t="s">
+        <v>27</v>
+      </c>
+      <c r="J107" t="s">
+        <v>27</v>
+      </c>
+      <c r="K107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>235</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E108" s="11">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>168</v>
+      </c>
+      <c r="G108" t="s">
+        <v>287</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="I108" t="s">
+        <v>27</v>
+      </c>
+      <c r="J108" t="s">
+        <v>27</v>
+      </c>
+      <c r="K108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>236</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E109" s="11">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109" t="s">
+        <v>37</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I109" t="s">
+        <v>27</v>
+      </c>
+      <c r="J109" t="s">
+        <v>27</v>
+      </c>
+      <c r="K109" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>237</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E110" s="11">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" t="s">
+        <v>37</v>
+      </c>
+      <c r="I110" t="s">
+        <v>27</v>
+      </c>
+      <c r="J110" t="s">
+        <v>27</v>
+      </c>
+      <c r="K110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>238</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E111" s="11">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>292</v>
+      </c>
+      <c r="G111" t="s">
+        <v>293</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I111" t="s">
+        <v>27</v>
+      </c>
+      <c r="J111" t="s">
+        <v>27</v>
+      </c>
+      <c r="K111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>239</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E112" s="11">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>295</v>
+      </c>
+      <c r="G112" t="s">
+        <v>296</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I112" t="s">
+        <v>27</v>
+      </c>
+      <c r="J112" t="s">
+        <v>27</v>
+      </c>
+      <c r="K112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>298</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E113" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>299</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E114" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>300</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E115" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>304</v>
+      </c>
+      <c r="C116" t="s">
+        <v>301</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E116" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>304</v>
+      </c>
+      <c r="C117" t="s">
+        <v>302</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E117" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>304</v>
+      </c>
+      <c r="C118" t="s">
+        <v>303</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E118" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>311</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E119" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>315</v>
+      </c>
+      <c r="C122" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>315</v>
+      </c>
+      <c r="C123" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>315</v>
+      </c>
+      <c r="C124" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4C5FB8-F5DF-4A1A-874D-E7CD0466A829}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.7265625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="36.08984375" customWidth="1"/>
+    <col min="4" max="6" width="18.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,36 +5281,44 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>23</v>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1">
+    <row r="2" spans="1:11" s="7" customFormat="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -655,20 +5329,22 @@
         <v>11</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2">
+      <c r="I3" s="2">
         <v>1974</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1">
+    <row r="4" spans="1:11" s="3" customFormat="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -679,20 +5355,22 @@
         <v>13</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2">
+      <c r="I4" s="2">
         <v>1974</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1">
+    <row r="5" spans="1:11" s="3" customFormat="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -703,20 +5381,22 @@
         <v>12</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>1975</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1">
+    <row r="6" spans="1:11" s="3" customFormat="1">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -727,20 +5407,22 @@
         <v>14</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <v>1988</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1">
+    <row r="7" spans="1:11" s="3" customFormat="1">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -751,20 +5433,22 @@
         <v>15</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>1997</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1">
+    <row r="8" spans="1:11" s="3" customFormat="1">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -775,23 +5459,25 @@
         <v>16</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2">
+      <c r="I8" s="2">
         <v>2009</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1">
+    <row r="9" spans="1:11" s="3" customFormat="1">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -802,23 +5488,25 @@
         <v>9</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="2">
+      <c r="I9" s="2">
         <v>2015</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1">
+    <row r="10" spans="1:11" s="3" customFormat="1">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -829,30 +5517,34 @@
         <v>18</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1">
+    <row r="11" spans="1:11" s="7" customFormat="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -861,26 +5553,32 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="8" customFormat="1">
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1">
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -891,25 +5589,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -920,25 +5621,25 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -946,28 +5647,28 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -975,35 +5676,35 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="10" customFormat="1"/>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="9" customFormat="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" display="https://namu.wiki/w/%ED%86%B5%EC%9D%BC%EC%A0%84%EC%84%A0%EB%B6%80 %EB%AC%B8%ED%99%94%EA%B5%90%EB%A5%98%EA%B5%AD" xr:uid="{F41E5A78-42DC-4582-9D51-F315E7F372DB}"/>
-    <hyperlink ref="I4" r:id="rId2" display="https://namu.wiki/w/%ED%86%B5%EC%9D%BC%EC%A0%84%EC%84%A0%EB%B6%80 %EB%AC%B8%ED%99%94%EA%B5%90%EB%A5%98%EA%B5%AD" xr:uid="{54E1A2E8-D269-4AFC-ABA2-7E2B9E511E3B}"/>
-    <hyperlink ref="I5:I8" r:id="rId3" display="https://namu.wiki/w/%ED%86%B5%EC%9D%BC%EC%A0%84%EC%84%A0%EB%B6%80 %EB%AC%B8%ED%99%94%EA%B5%90%EB%A5%98%EA%B5%AD" xr:uid="{9567BE2D-3F29-4D44-9A14-5C9F1D1DDDC2}"/>
-    <hyperlink ref="I9" r:id="rId4" display="https://namu.wiki/w/%ED%86%B5%EC%9D%BC%EC%A0%84%EC%84%A0%EB%B6%80 %EB%AC%B8%ED%99%94%EA%B5%90%EB%A5%98%EA%B5%AD" xr:uid="{548642C6-7303-475B-B0AA-3E7B8445A507}"/>
-    <hyperlink ref="I10" r:id="rId5" display="https://namu.wiki/w/%ED%86%B5%EC%9D%BC%EC%A0%84%EC%84%A0%EB%B6%80 %EB%AC%B8%ED%99%94%EA%B5%90%EB%A5%98%EA%B5%AD" xr:uid="{9657837F-8BD7-4E20-86DA-3A7740E4433B}"/>
+    <hyperlink ref="K3" r:id="rId1" display="https://namu.wiki/w/%ED%86%B5%EC%9D%BC%EC%A0%84%EC%84%A0%EB%B6%80 %EB%AC%B8%ED%99%94%EA%B5%90%EB%A5%98%EA%B5%AD" xr:uid="{F41E5A78-42DC-4582-9D51-F315E7F372DB}"/>
+    <hyperlink ref="K4" r:id="rId2" display="https://namu.wiki/w/%ED%86%B5%EC%9D%BC%EC%A0%84%EC%84%A0%EB%B6%80 %EB%AC%B8%ED%99%94%EA%B5%90%EB%A5%98%EA%B5%AD" xr:uid="{54E1A2E8-D269-4AFC-ABA2-7E2B9E511E3B}"/>
+    <hyperlink ref="K5:K8" r:id="rId3" display="https://namu.wiki/w/%ED%86%B5%EC%9D%BC%EC%A0%84%EC%84%A0%EB%B6%80 %EB%AC%B8%ED%99%94%EA%B5%90%EB%A5%98%EA%B5%AD" xr:uid="{9567BE2D-3F29-4D44-9A14-5C9F1D1DDDC2}"/>
+    <hyperlink ref="K9" r:id="rId4" display="https://namu.wiki/w/%ED%86%B5%EC%9D%BC%EC%A0%84%EC%84%A0%EB%B6%80 %EB%AC%B8%ED%99%94%EA%B5%90%EB%A5%98%EA%B5%AD" xr:uid="{548642C6-7303-475B-B0AA-3E7B8445A507}"/>
+    <hyperlink ref="K10" r:id="rId5" display="https://namu.wiki/w/%ED%86%B5%EC%9D%BC%EC%A0%84%EC%84%A0%EB%B6%80 %EB%AC%B8%ED%99%94%EA%B5%90%EB%A5%98%EA%B5%AD" xr:uid="{9657837F-8BD7-4E20-86DA-3A7740E4433B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
